--- a/documentation/bustransit_sprint_backlog.xlsx
+++ b/documentation/bustransit_sprint_backlog.xlsx
@@ -2,32 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NelsonDelaTorre\Documents\GitHub\Bus_Transit\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="10500" tabRatio="808" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="10500" tabRatio="808" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="minutes" sheetId="10" r:id="rId1"/>
-    <sheet name="modules" sheetId="1" r:id="rId2"/>
-    <sheet name="eis_size" sheetId="9" r:id="rId3"/>
-    <sheet name="product_backlog_eis_standards" sheetId="8" r:id="rId4"/>
-    <sheet name="sprint_backlog_eis_standards" sheetId="13" r:id="rId5"/>
-    <sheet name="backlogs_types" sheetId="12" r:id="rId6"/>
-    <sheet name="user_stories" sheetId="2" r:id="rId7"/>
-    <sheet name="products" sheetId="11" r:id="rId8"/>
-    <sheet name="product_backlog_is" sheetId="3" r:id="rId9"/>
-    <sheet name="ies_standards" sheetId="4" r:id="rId10"/>
-    <sheet name="eis_integration" sheetId="5" r:id="rId11"/>
-    <sheet name="eis_anlytics" sheetId="6" r:id="rId12"/>
-    <sheet name="sprint_backlog_output" sheetId="7" r:id="rId13"/>
+    <sheet name="modules" sheetId="1" r:id="rId1"/>
+    <sheet name="user_stories" sheetId="2" r:id="rId2"/>
+    <sheet name="eis_info_sec" sheetId="13" r:id="rId3"/>
+    <sheet name="ies_standards" sheetId="4" r:id="rId4"/>
+    <sheet name="eis_integration" sheetId="5" r:id="rId5"/>
+    <sheet name="eis_analytics" sheetId="28" r:id="rId6"/>
+    <sheet name="sprint_1" sheetId="14" r:id="rId7"/>
+    <sheet name="sprint_backlog_output" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">modules!$A$2:$G$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modules!$A$2:$G$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="313">
   <si>
     <t>Modules</t>
   </si>
@@ -647,36 +642,6 @@
     <t>baquirmark05@gmail.com</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>logistics</t>
-  </si>
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Total Employee:</t>
-  </si>
-  <si>
-    <t>Total Department:</t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
@@ -689,12 +654,6 @@
     <t>Responsible Team Member</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>TOPICS</t>
-  </si>
-  <si>
     <t>Integration Number</t>
   </si>
   <si>
@@ -716,15 +675,6 @@
     <t>Tasks [n…1]</t>
   </si>
   <si>
-    <t>Product Back log for EIS Standard</t>
-  </si>
-  <si>
-    <t>One design theme Material design</t>
-  </si>
-  <si>
-    <t>Uses MVC file structuring</t>
-  </si>
-  <si>
     <t>IS Number</t>
   </si>
   <si>
@@ -734,51 +684,18 @@
     <t>IS Points</t>
   </si>
   <si>
-    <t>Sprint Backlog for EIS Information Security</t>
-  </si>
-  <si>
     <t>Centralized Database</t>
   </si>
   <si>
-    <t>Network Set up for Bus Transit</t>
-  </si>
-  <si>
-    <t>Normalize Database</t>
-  </si>
-  <si>
     <t>User Story #</t>
   </si>
   <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Secured Login System</t>
-  </si>
-  <si>
-    <t>Replication of Master data</t>
-  </si>
-  <si>
-    <t>One design Theme</t>
-  </si>
-  <si>
-    <t>Sub set of Master data</t>
-  </si>
-  <si>
-    <t>Scheduled database backup</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Centralized Database Server</t>
-  </si>
-  <si>
-    <t>Modular Project Structure</t>
-  </si>
-  <si>
     <t>Access Control System</t>
   </si>
   <si>
@@ -833,60 +750,9 @@
     <t>As HR Officer, I want to be able to change some information about the employee</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Tasks (1…N)</t>
-  </si>
-  <si>
-    <t>User Story Number</t>
-  </si>
-  <si>
-    <t>User Story Priorities</t>
-  </si>
-  <si>
-    <t>Requirement Reference</t>
-  </si>
-  <si>
-    <t>Revised Priority</t>
-  </si>
-  <si>
-    <t>EIS Standards</t>
-  </si>
-  <si>
-    <t>EIS Information Security</t>
-  </si>
-  <si>
-    <t>EIS Integration</t>
-  </si>
-  <si>
-    <t>EIS Analytics</t>
-  </si>
-  <si>
-    <t>Sprint Backlog</t>
-  </si>
-  <si>
-    <t>Product Back log</t>
-  </si>
-  <si>
-    <t>Product Backlog User Stories</t>
-  </si>
-  <si>
-    <t>Sprint Backlog User Stories</t>
-  </si>
-  <si>
     <t>Tasks (1…..n)</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
     <t>Hashing security password</t>
   </si>
   <si>
@@ -896,12 +762,6 @@
     <t>User restriction</t>
   </si>
   <si>
-    <t>IS #</t>
-  </si>
-  <si>
-    <t>Then hash string using toMD5() function from DBUtilities.</t>
-  </si>
-  <si>
     <t>Filter user upon login using filterUser() in SidePaneController</t>
   </si>
   <si>
@@ -918,13 +778,208 @@
   </si>
   <si>
     <t>Accepted by Product Owner</t>
+  </si>
+  <si>
+    <t>Sprint 1 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint 1 (2 Weeks)</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total Effort</t>
+  </si>
+  <si>
+    <t>Product Backlog Item ID</t>
+  </si>
+  <si>
+    <t>User Stories (Features)</t>
+  </si>
+  <si>
+    <t>Initial Estimate</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Sprint Back log for EIS Standard</t>
+  </si>
+  <si>
+    <t>Analytics Number</t>
+  </si>
+  <si>
+    <t>Analytics Description</t>
+  </si>
+  <si>
+    <t>Analytics Standards Points</t>
+  </si>
+  <si>
+    <t>Sprint Backlog for Information Security</t>
+  </si>
+  <si>
+    <t>Sprint Backlog for Integration</t>
+  </si>
+  <si>
+    <t>Sprint Backlog for EIS Analytics</t>
+  </si>
+  <si>
+    <t>Load Modules designated to logged in system user</t>
+  </si>
+  <si>
+    <t>Password Reset</t>
+  </si>
+  <si>
+    <t>Create GUI for reseting password</t>
+  </si>
+  <si>
+    <t>Create a function that generate random numbers and text as a temporary password</t>
+  </si>
+  <si>
+    <t>Update user login with new generated password</t>
+  </si>
+  <si>
+    <t>display new generated password as per request of the user</t>
+  </si>
+  <si>
+    <t>Create a GUI for Access Control System</t>
+  </si>
+  <si>
+    <t>Create a database table containing all modules and functions with the designated department</t>
+  </si>
+  <si>
+    <t>Save it to current users record</t>
+  </si>
+  <si>
+    <t>Get lists of functions based on current user login</t>
+  </si>
+  <si>
+    <t>Generate a list of JFXCheckBox as a selector for user functions</t>
+  </si>
+  <si>
+    <t>Create a function that will get all checked functions then add it to currenct user functions</t>
+  </si>
+  <si>
+    <t>DPA Compliance</t>
+  </si>
+  <si>
+    <t>Use MVC file structuring</t>
+  </si>
+  <si>
+    <t>One design theme (Material design)</t>
+  </si>
+  <si>
+    <t>Create a StyleSheet that mimic the Material Design theme of Google</t>
+  </si>
+  <si>
+    <t>Create a project structure for the whole project containing subsystems</t>
+  </si>
+  <si>
+    <t>Set up local network for the project</t>
+  </si>
+  <si>
+    <t>assign server and client units</t>
+  </si>
+  <si>
+    <t>normalize database</t>
+  </si>
+  <si>
+    <t>One Mondule Controller</t>
+  </si>
+  <si>
+    <t>Create a java Controller for module directory</t>
+  </si>
+  <si>
+    <t>Add a list of JFXButton on it</t>
+  </si>
+  <si>
+    <t>Hash string password using toMD5() function from DBUtilities.</t>
+  </si>
+  <si>
+    <t>Set a standard message on getting users info declaring the company compliance to DPA</t>
+  </si>
+  <si>
+    <t>Set choos option for the system user to accept or reject the agreement</t>
+  </si>
+  <si>
+    <t>Add filter function to login system that will redirect to user to its assigned sub system and module</t>
+  </si>
+  <si>
+    <t>Creat One login UI to be used by the system user</t>
+  </si>
+  <si>
+    <t>Distribute the Stylesheet to development team</t>
+  </si>
+  <si>
+    <t>Create a function that load the fxml file targeting the file location of the module</t>
+  </si>
+  <si>
+    <t>Standardized Database</t>
+  </si>
+  <si>
+    <t>Create a Database architecture to be followed by the developer team</t>
+  </si>
+  <si>
+    <t>Set a standard naming convention for creating new table in the database</t>
+  </si>
+  <si>
+    <t>Create a replication of master database</t>
+  </si>
+  <si>
+    <t>Create a master database</t>
+  </si>
+  <si>
+    <t>Native JavaFX Charts</t>
+  </si>
+  <si>
+    <t>Material Design Dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,46 +1024,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1016,12 +1045,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -1102,7 +1149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1164,33 +1211,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1200,28 +1220,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1235,29 +1251,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE6B8B7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1532,252 +1592,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="1:5" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
-        <v>2</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="20.42578125" style="50"/>
-    <col min="5" max="5" width="31.85546875" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="20.42578125" style="50"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -1794,15 +1614,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2926,11 +2746,11 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="18">
         <f>COUNTIF(D3:D52,"&lt;&gt;"&amp;"")</f>
         <v>45</v>
@@ -3001,3032 +2821,2187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2">
-        <f>SUM(B3:B50)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3">
-        <f>COUNT(B3:B50)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="47.28515625" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
-        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
-        <f>ROW()-1</f>
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F131"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" style="53" customWidth="1"/>
-    <col min="5" max="5" width="20" style="41" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="32" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
-        <f>IF(ISBLANK(B2),"",ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="33">
-        <f>IF(ISBLANK(D2),"",ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="33">
-        <f t="shared" ref="C3:C6" si="0">IF(ISBLANK(D3),"",ROW()-1)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <f t="shared" ref="A5:A11" si="1">IF(ISBLANK(B5),"",ROW()-1)</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="33">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="33" t="str">
-        <f t="shared" ref="C7:C15" si="2">IF(ISBLANK(D7),"",ROW()-1)</f>
-        <v/>
-      </c>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C9" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C10" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C11" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="str">
-        <f>IF(ISBLANK(B11),"",ROW()-1)</f>
-        <v/>
-      </c>
-      <c r="C12" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="str">
-        <f t="shared" ref="A13:A15" si="3">IF(ISBLANK(B12),"",ROW()-1)</f>
-        <v/>
-      </c>
-      <c r="C13" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C14" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C15" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="33"/>
-    </row>
-    <row r="26" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="33"/>
-    </row>
-    <row r="29" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="33"/>
-    </row>
-    <row r="30" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
-    </row>
-    <row r="31" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="33"/>
-    </row>
-    <row r="32" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="33"/>
-    </row>
-    <row r="33" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="33"/>
-    </row>
-    <row r="34" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="33"/>
-    </row>
-    <row r="35" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="33"/>
-    </row>
-    <row r="37" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="33"/>
-    </row>
-    <row r="38" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="33"/>
-    </row>
-    <row r="39" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="33"/>
-    </row>
-    <row r="40" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="33"/>
-    </row>
-    <row r="43" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="33"/>
-    </row>
-    <row r="44" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="33"/>
-    </row>
-    <row r="48" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="33"/>
-    </row>
-    <row r="49" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="33"/>
-    </row>
-    <row r="50" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="33"/>
-    </row>
-    <row r="51" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="33"/>
-    </row>
-    <row r="52" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="33"/>
-    </row>
-    <row r="53" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="33"/>
-    </row>
-    <row r="54" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="33"/>
-    </row>
-    <row r="55" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="33"/>
-    </row>
-    <row r="56" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="33"/>
-    </row>
-    <row r="58" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F58" s="33"/>
-    </row>
-    <row r="59" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="33"/>
-    </row>
-    <row r="60" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="33"/>
-    </row>
-    <row r="61" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F67" s="33"/>
-    </row>
-    <row r="68" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="33"/>
-    </row>
-    <row r="69" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="33"/>
-    </row>
-    <row r="70" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F70" s="33"/>
-    </row>
-    <row r="71" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="33"/>
-    </row>
-    <row r="72" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="33"/>
-    </row>
-    <row r="73" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="33"/>
-    </row>
-    <row r="74" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="33"/>
-    </row>
-    <row r="75" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F75" s="33"/>
-    </row>
-    <row r="76" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="33"/>
-    </row>
-    <row r="77" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="33"/>
-    </row>
-    <row r="78" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="33"/>
-    </row>
-    <row r="79" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="33"/>
-    </row>
-    <row r="80" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="33"/>
-    </row>
-    <row r="81" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="33"/>
-    </row>
-    <row r="82" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="33"/>
-    </row>
-    <row r="83" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F83" s="33"/>
-    </row>
-    <row r="84" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F84" s="33"/>
-    </row>
-    <row r="85" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F85" s="33"/>
-    </row>
-    <row r="86" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F86" s="33"/>
-    </row>
-    <row r="87" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F87" s="33"/>
-    </row>
-    <row r="88" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F88" s="33"/>
-    </row>
-    <row r="89" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="33"/>
-    </row>
-    <row r="90" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="33"/>
-    </row>
-    <row r="91" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="33"/>
-    </row>
-    <row r="92" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F92" s="33"/>
-    </row>
-    <row r="93" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F93" s="33"/>
-    </row>
-    <row r="94" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F94" s="33"/>
-    </row>
-    <row r="95" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F95" s="33"/>
-    </row>
-    <row r="96" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F96" s="33"/>
-    </row>
-    <row r="97" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F97" s="33"/>
-    </row>
-    <row r="98" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F98" s="33"/>
-    </row>
-    <row r="99" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F99" s="33"/>
-    </row>
-    <row r="100" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F100" s="33"/>
-    </row>
-    <row r="101" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F101" s="33"/>
-    </row>
-    <row r="102" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="33"/>
-    </row>
-    <row r="103" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F103" s="33"/>
-    </row>
-    <row r="104" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F104" s="33"/>
-    </row>
-    <row r="105" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F105" s="33"/>
-    </row>
-    <row r="106" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F106" s="33"/>
-    </row>
-    <row r="107" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F107" s="33"/>
-    </row>
-    <row r="108" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F108" s="33"/>
-    </row>
-    <row r="109" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F109" s="33"/>
-    </row>
-    <row r="110" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F110" s="33"/>
-    </row>
-    <row r="111" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F111" s="33"/>
-    </row>
-    <row r="112" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="33"/>
-    </row>
-    <row r="113" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F113" s="33"/>
-    </row>
-    <row r="114" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F114" s="33"/>
-    </row>
-    <row r="115" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F115" s="33"/>
-    </row>
-    <row r="116" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F116" s="33"/>
-    </row>
-    <row r="117" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F117" s="33"/>
-    </row>
-    <row r="118" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F118" s="33"/>
-    </row>
-    <row r="119" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F119" s="33"/>
-    </row>
-    <row r="120" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F120" s="33"/>
-    </row>
-    <row r="121" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F121" s="33"/>
-    </row>
-    <row r="122" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F122" s="33"/>
-    </row>
-    <row r="123" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F123" s="33"/>
-    </row>
-    <row r="124" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F124" s="33"/>
-    </row>
-    <row r="125" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F125" s="33"/>
-    </row>
-    <row r="126" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F126" s="33"/>
-    </row>
-    <row r="127" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F127" s="33"/>
-    </row>
-    <row r="128" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F128" s="33"/>
-    </row>
-    <row r="129" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F129" s="33"/>
-    </row>
-    <row r="130" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F130" s="33"/>
-    </row>
-    <row r="131" spans="6:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F131" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>modules!$D$3:$D$52</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F131</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="34" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="14.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="135" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>243</v>
+      <c r="A1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="22">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="22">
         <f t="shared" ref="A3:A64" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>248</v>
+      <c r="B3" s="28" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>263</v>
+      <c r="B4" s="29" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>249</v>
+      <c r="B5" s="29" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>250</v>
+      <c r="B6" s="29" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>251</v>
+      <c r="B7" s="29" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>252</v>
+      <c r="B8" s="29" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>253</v>
+      <c r="B9" s="29" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>254</v>
+      <c r="B10" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>262</v>
+      <c r="B11" s="28" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>255</v>
+      <c r="B12" s="28" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>256</v>
+      <c r="B13" s="28" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>257</v>
+      <c r="B14" s="28" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>258</v>
+      <c r="B15" s="28" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>259</v>
+      <c r="B16" s="28" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>260</v>
+      <c r="B17" s="28" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>261</v>
+      <c r="B18" s="28" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="22">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+      <c r="A40" s="22">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="A41" s="22">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
+      <c r="A42" s="22">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="A43" s="22">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
+      <c r="A44" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+      <c r="A45" s="22">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33">
+      <c r="A46" s="22">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
+      <c r="A47" s="22">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="A48" s="22">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33">
+      <c r="A49" s="22">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33">
+      <c r="A50" s="22">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+      <c r="A51" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33">
+      <c r="A52" s="22">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33">
+      <c r="A53" s="22">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
+      <c r="A54" s="22">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33">
+      <c r="A55" s="22">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
+      <c r="A56" s="22">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
+      <c r="A57" s="22">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
+      <c r="A58" s="22">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
+      <c r="A59" s="22">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
+      <c r="A60" s="22">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33">
+      <c r="A61" s="22">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33">
+      <c r="A62" s="22">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
+      <c r="A63" s="22">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33">
+      <c r="A64" s="22">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
+      <c r="A65" s="22">
         <f t="shared" ref="A65:A128" si="1">ROW()-1</f>
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
+      <c r="A66" s="22">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
+      <c r="A67" s="22">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
+      <c r="A68" s="22">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33">
+      <c r="A69" s="22">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33">
+      <c r="A70" s="22">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="A71" s="22">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33">
+      <c r="A72" s="22">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33">
+      <c r="A73" s="22">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
+      <c r="A74" s="22">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="33">
+      <c r="A75" s="22">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="33">
+      <c r="A76" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33">
+      <c r="A77" s="22">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33">
+      <c r="A78" s="22">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="33">
+      <c r="A79" s="22">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33">
+      <c r="A80" s="22">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="33">
+      <c r="A81" s="22">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
+      <c r="A82" s="22">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="33">
+      <c r="A83" s="22">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33">
+      <c r="A84" s="22">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33">
+      <c r="A85" s="22">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="33">
+      <c r="A86" s="22">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33">
+      <c r="A87" s="22">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33">
+      <c r="A88" s="22">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33">
+      <c r="A89" s="22">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33">
+      <c r="A90" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33">
+      <c r="A91" s="22">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33">
+      <c r="A92" s="22">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33">
+      <c r="A93" s="22">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33">
+      <c r="A94" s="22">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33">
+      <c r="A95" s="22">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="33">
+      <c r="A96" s="22">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33">
+      <c r="A97" s="22">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="33">
+      <c r="A98" s="22">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="33">
+      <c r="A99" s="22">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33">
+      <c r="A100" s="22">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="33">
+      <c r="A101" s="22">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="33">
+      <c r="A102" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="33">
+      <c r="A103" s="22">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33">
+      <c r="A104" s="22">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="33">
+      <c r="A105" s="22">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="33">
+      <c r="A106" s="22">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="33">
+      <c r="A107" s="22">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="33">
+      <c r="A108" s="22">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33">
+      <c r="A109" s="22">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="33">
+      <c r="A110" s="22">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33">
+      <c r="A111" s="22">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33">
+      <c r="A112" s="22">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33">
+      <c r="A113" s="22">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33">
+      <c r="A114" s="22">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33">
+      <c r="A115" s="22">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33">
+      <c r="A116" s="22">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33">
+      <c r="A117" s="22">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33">
+      <c r="A118" s="22">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33">
+      <c r="A119" s="22">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="33">
+      <c r="A120" s="22">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="33">
+      <c r="A121" s="22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="33">
+      <c r="A122" s="22">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="33">
+      <c r="A123" s="22">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="33">
+      <c r="A124" s="22">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="33">
+      <c r="A125" s="22">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="33">
+      <c r="A126" s="22">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="33">
+      <c r="A127" s="22">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33">
+      <c r="A128" s="22">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="33">
+      <c r="A129" s="22">
         <f t="shared" ref="A129:A192" si="2">ROW()-1</f>
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33">
+      <c r="A130" s="22">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="33">
+      <c r="A131" s="22">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="33">
+      <c r="A132" s="22">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33">
+      <c r="A133" s="22">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="33">
+      <c r="A134" s="22">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="33">
+      <c r="A135" s="22">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="33">
+      <c r="A136" s="22">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="33">
+      <c r="A137" s="22">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="33">
+      <c r="A138" s="22">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="33">
+      <c r="A139" s="22">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="33">
+      <c r="A140" s="22">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="33">
+      <c r="A141" s="22">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="33">
+      <c r="A142" s="22">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="33">
+      <c r="A143" s="22">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="33">
+      <c r="A144" s="22">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="33">
+      <c r="A145" s="22">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="33">
+      <c r="A146" s="22">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="33">
+      <c r="A147" s="22">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="33">
+      <c r="A148" s="22">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="33">
+      <c r="A149" s="22">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="33">
+      <c r="A150" s="22">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="33">
+      <c r="A151" s="22">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="33">
+      <c r="A152" s="22">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="33">
+      <c r="A153" s="22">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="33">
+      <c r="A154" s="22">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="33">
+      <c r="A155" s="22">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="33">
+      <c r="A156" s="22">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="33">
+      <c r="A157" s="22">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="33">
+      <c r="A158" s="22">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="33">
+      <c r="A159" s="22">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="33">
+      <c r="A160" s="22">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="33">
+      <c r="A161" s="22">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="33">
+      <c r="A162" s="22">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="33">
+      <c r="A163" s="22">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="33">
+      <c r="A164" s="22">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="33">
+      <c r="A165" s="22">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="33">
+      <c r="A166" s="22">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="33">
+      <c r="A167" s="22">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="33">
+      <c r="A168" s="22">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="33">
+      <c r="A169" s="22">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="33">
+      <c r="A170" s="22">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="33">
+      <c r="A171" s="22">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="33">
+      <c r="A172" s="22">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="33">
+      <c r="A173" s="22">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="33">
+      <c r="A174" s="22">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="33">
+      <c r="A175" s="22">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="33">
+      <c r="A176" s="22">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="33">
+      <c r="A177" s="22">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="33">
+      <c r="A178" s="22">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="33">
+      <c r="A179" s="22">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="33">
+      <c r="A180" s="22">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="33">
+      <c r="A181" s="22">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="33">
+      <c r="A182" s="22">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="33">
+      <c r="A183" s="22">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="33">
+      <c r="A184" s="22">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="33">
+      <c r="A185" s="22">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="33">
+      <c r="A186" s="22">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="33">
+      <c r="A187" s="22">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="33">
+      <c r="A188" s="22">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="33">
+      <c r="A189" s="22">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="33">
+      <c r="A190" s="22">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="33">
+      <c r="A191" s="22">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="33">
+      <c r="A192" s="22">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="33">
+      <c r="A193" s="22">
         <f t="shared" ref="A193:A256" si="3">ROW()-1</f>
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="33">
+      <c r="A194" s="22">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="33">
+      <c r="A195" s="22">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="33">
+      <c r="A196" s="22">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="33">
+      <c r="A197" s="22">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="33">
+      <c r="A198" s="22">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="33">
+      <c r="A199" s="22">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="33">
+      <c r="A200" s="22">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="33">
+      <c r="A201" s="22">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="33">
+      <c r="A202" s="22">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="33">
+      <c r="A203" s="22">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="33">
+      <c r="A204" s="22">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="33">
+      <c r="A205" s="22">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="33">
+      <c r="A206" s="22">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="33">
+      <c r="A207" s="22">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="33">
+      <c r="A208" s="22">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="33">
+      <c r="A209" s="22">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="33">
+      <c r="A210" s="22">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="33">
+      <c r="A211" s="22">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="33">
+      <c r="A212" s="22">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="33">
+      <c r="A213" s="22">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="33">
+      <c r="A214" s="22">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="33">
+      <c r="A215" s="22">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="33">
+      <c r="A216" s="22">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="33">
+      <c r="A217" s="22">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="33">
+      <c r="A218" s="22">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="33">
+      <c r="A219" s="22">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="33">
+      <c r="A220" s="22">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="33">
+      <c r="A221" s="22">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="33">
+      <c r="A222" s="22">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="33">
+      <c r="A223" s="22">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="33">
+      <c r="A224" s="22">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="33">
+      <c r="A225" s="22">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="33">
+      <c r="A226" s="22">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="33">
+      <c r="A227" s="22">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="33">
+      <c r="A228" s="22">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="33">
+      <c r="A229" s="22">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="33">
+      <c r="A230" s="22">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="33">
+      <c r="A231" s="22">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="33">
+      <c r="A232" s="22">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="33">
+      <c r="A233" s="22">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="33">
+      <c r="A234" s="22">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="33">
+      <c r="A235" s="22">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="33">
+      <c r="A236" s="22">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="33">
+      <c r="A237" s="22">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="33">
+      <c r="A238" s="22">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="33">
+      <c r="A239" s="22">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="33">
+      <c r="A240" s="22">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="33">
+      <c r="A241" s="22">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="33">
+      <c r="A242" s="22">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="33">
+      <c r="A243" s="22">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="33">
+      <c r="A244" s="22">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="33">
+      <c r="A245" s="22">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="33">
+      <c r="A246" s="22">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="33">
+      <c r="A247" s="22">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="33">
+      <c r="A248" s="22">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="33">
+      <c r="A249" s="22">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="33">
+      <c r="A250" s="22">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="33">
+      <c r="A251" s="22">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="33">
+      <c r="A252" s="22">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="33">
+      <c r="A253" s="22">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="33">
+      <c r="A254" s="22">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="33">
+      <c r="A255" s="22">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="33">
+      <c r="A256" s="22">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="33">
+      <c r="A257" s="22">
         <f t="shared" ref="A257:A298" si="4">ROW()-1</f>
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="33">
+      <c r="A258" s="22">
         <f t="shared" si="4"/>
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="33">
+      <c r="A259" s="22">
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="33">
+      <c r="A260" s="22">
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="33">
+      <c r="A261" s="22">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="33">
+      <c r="A262" s="22">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="33">
+      <c r="A263" s="22">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="33">
+      <c r="A264" s="22">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="33">
+      <c r="A265" s="22">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="33">
+      <c r="A266" s="22">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="33">
+      <c r="A267" s="22">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="33">
+      <c r="A268" s="22">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="33">
+      <c r="A269" s="22">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="33">
+      <c r="A270" s="22">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="33">
+      <c r="A271" s="22">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="33">
+      <c r="A272" s="22">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="33">
+      <c r="A273" s="22">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="33">
+      <c r="A274" s="22">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="33">
+      <c r="A275" s="22">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="33">
+      <c r="A276" s="22">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="33">
+      <c r="A277" s="22">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="33">
+      <c r="A278" s="22">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="33">
+      <c r="A279" s="22">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="33">
+      <c r="A280" s="22">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="33">
+      <c r="A281" s="22">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="33">
+      <c r="A282" s="22">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="33">
+      <c r="A283" s="22">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="33">
+      <c r="A284" s="22">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="33">
+      <c r="A285" s="22">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="33">
+      <c r="A286" s="22">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="33">
+      <c r="A287" s="22">
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="33">
+      <c r="A288" s="22">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="33">
+      <c r="A289" s="22">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="33">
+      <c r="A290" s="22">
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="33">
+      <c r="A291" s="22">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="33">
+      <c r="A292" s="22">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="33">
+      <c r="A293" s="22">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="33">
+      <c r="A294" s="22">
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="33">
+      <c r="A295" s="22">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="33">
+      <c r="A296" s="22">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="33">
+      <c r="A297" s="22">
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="33">
+      <c r="A298" s="22">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="33">
+      <c r="A299" s="22">
         <f>ROW()-1</f>
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="33">
+      <c r="A300" s="22">
         <f t="shared" ref="A300:A349" si="5">ROW()-1</f>
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="33">
+      <c r="A301" s="22">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="33">
+      <c r="A302" s="22">
         <f t="shared" si="5"/>
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="33">
+      <c r="A303" s="22">
         <f t="shared" si="5"/>
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="33">
+      <c r="A304" s="22">
         <f t="shared" si="5"/>
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="33">
+      <c r="A305" s="22">
         <f t="shared" si="5"/>
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="33">
+      <c r="A306" s="22">
         <f t="shared" si="5"/>
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="33">
+      <c r="A307" s="22">
         <f t="shared" si="5"/>
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="33">
+      <c r="A308" s="22">
         <f t="shared" si="5"/>
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="33">
+      <c r="A309" s="22">
         <f t="shared" si="5"/>
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="33">
+      <c r="A310" s="22">
         <f t="shared" si="5"/>
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="33">
+      <c r="A311" s="22">
         <f t="shared" si="5"/>
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="33">
+      <c r="A312" s="22">
         <f t="shared" si="5"/>
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="33">
+      <c r="A313" s="22">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="33">
+      <c r="A314" s="22">
         <f t="shared" si="5"/>
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="33">
+      <c r="A315" s="22">
         <f t="shared" si="5"/>
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="33">
+      <c r="A316" s="22">
         <f t="shared" si="5"/>
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="33">
+      <c r="A317" s="22">
         <f t="shared" si="5"/>
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="33">
+      <c r="A318" s="22">
         <f t="shared" si="5"/>
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="33">
+      <c r="A319" s="22">
         <f t="shared" si="5"/>
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="33">
+      <c r="A320" s="22">
         <f t="shared" si="5"/>
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="33">
+      <c r="A321" s="22">
         <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="33">
+      <c r="A322" s="22">
         <f t="shared" si="5"/>
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="33">
+      <c r="A323" s="22">
         <f t="shared" si="5"/>
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="33">
+      <c r="A324" s="22">
         <f t="shared" si="5"/>
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="33">
+      <c r="A325" s="22">
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="33">
+      <c r="A326" s="22">
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="33">
+      <c r="A327" s="22">
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="33">
+      <c r="A328" s="22">
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="33">
+      <c r="A329" s="22">
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="33">
+      <c r="A330" s="22">
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="33">
+      <c r="A331" s="22">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="33">
+      <c r="A332" s="22">
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="33">
+      <c r="A333" s="22">
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="33">
+      <c r="A334" s="22">
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="33">
+      <c r="A335" s="22">
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="33">
+      <c r="A336" s="22">
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="33">
+      <c r="A337" s="22">
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="33">
+      <c r="A338" s="22">
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="33">
+      <c r="A339" s="22">
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="33">
+      <c r="A340" s="22">
         <f t="shared" si="5"/>
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="33">
+      <c r="A341" s="22">
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="33">
+      <c r="A342" s="22">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="33">
+      <c r="A343" s="22">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="33">
+      <c r="A344" s="22">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="33">
+      <c r="A345" s="22">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="33">
+      <c r="A346" s="22">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="33">
+      <c r="A347" s="22">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="33">
+      <c r="A348" s="22">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="33">
+      <c r="A349" s="22">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
@@ -6039,7 +5014,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>products!$A$2:$A$34</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
@@ -6051,7 +5026,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>products!$B$2:$B$4</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G349</xm:sqref>
         </x14:dataValidation>
@@ -6061,138 +5036,3937 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="95.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="22">
+        <f>IF(ISBLANK(D3),"",ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="str">
+        <f>IF(ISBLANK(B4),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="22">
+        <f>IF(ISBLANK(D4),"",ROW()-2)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="str">
+        <f t="shared" ref="A5:A67" si="0">IF(ISBLANK(B5),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="22">
+        <f>IF(ISBLANK(D5),"",ROW()-2)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" ref="C6:C12" si="1">IF(ISBLANK(D6),"",ROW()-2)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="22">
+        <v>8</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>3</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="24">
+        <v>7</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="24">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="22">
+        <f t="shared" ref="C9:C18" si="2">IF(ISBLANK(D13),"",ROW()-1)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="22">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="str">
+        <f>IF(ISBLANK(B16),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="C16" s="22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <f>IF(ISBLANK(B17),"",ROW()-2)</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="22">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="24">
+        <v>4</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="str">
+        <f t="shared" ref="A68:A131" si="3">IF(ISBLANK(B68),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F88" s="22"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F89" s="22"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F90" s="22"/>
+    </row>
+    <row r="91" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F93" s="22"/>
+    </row>
+    <row r="94" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F94" s="22"/>
+    </row>
+    <row r="95" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F95" s="22"/>
+    </row>
+    <row r="96" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F96" s="22"/>
+    </row>
+    <row r="97" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F99" s="22"/>
+    </row>
+    <row r="100" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F101" s="22"/>
+    </row>
+    <row r="102" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F103" s="22"/>
+    </row>
+    <row r="104" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F104" s="22"/>
+    </row>
+    <row r="105" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F106" s="22"/>
+    </row>
+    <row r="107" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F108" s="22"/>
+    </row>
+    <row r="109" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F109" s="22"/>
+    </row>
+    <row r="110" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F110" s="22"/>
+    </row>
+    <row r="111" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F111" s="22"/>
+    </row>
+    <row r="112" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F112" s="22"/>
+    </row>
+    <row r="113" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F114" s="22"/>
+    </row>
+    <row r="115" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F116" s="22"/>
+    </row>
+    <row r="117" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F117" s="22"/>
+    </row>
+    <row r="118" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F118" s="22"/>
+    </row>
+    <row r="119" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F120" s="22"/>
+    </row>
+    <row r="121" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F121" s="22"/>
+    </row>
+    <row r="122" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F122" s="22"/>
+    </row>
+    <row r="123" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F123" s="22"/>
+    </row>
+    <row r="124" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F124" s="22"/>
+    </row>
+    <row r="125" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F125" s="22"/>
+    </row>
+    <row r="126" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F126" s="22"/>
+    </row>
+    <row r="127" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F127" s="22"/>
+    </row>
+    <row r="128" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F128" s="22"/>
+    </row>
+    <row r="129" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F129" s="22"/>
+    </row>
+    <row r="130" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F130" s="22"/>
+    </row>
+    <row r="131" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F131" s="22"/>
+    </row>
+    <row r="132" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="str">
+        <f t="shared" ref="A132:A133" si="4">IF(ISBLANK(B132),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F133" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>modules!$D$3:$D$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F133</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F134"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="99.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="22">
+        <f>IF(ISBLANK(D3),"",ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="22">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="22">
+        <f t="shared" ref="C4:C17" si="0">IF(ISBLANK(D4),"",ROW()-2)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="22">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="C11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="C12" s="22" t="str">
+        <f>IF(ISBLANK(D12),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="C13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="C14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="C16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="C17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22"/>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="F88" s="22"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="F89" s="22"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="F90" s="22"/>
+    </row>
+    <row r="91" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="F93" s="22"/>
+    </row>
+    <row r="94" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="F94" s="22"/>
+    </row>
+    <row r="95" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="F95" s="22"/>
+    </row>
+    <row r="96" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="F96" s="22"/>
+    </row>
+    <row r="97" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="F99" s="22"/>
+    </row>
+    <row r="100" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="F101" s="22"/>
+    </row>
+    <row r="102" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="F103" s="22"/>
+    </row>
+    <row r="104" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="F104" s="22"/>
+    </row>
+    <row r="105" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="F106" s="22"/>
+    </row>
+    <row r="107" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="F108" s="22"/>
+    </row>
+    <row r="109" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="F109" s="22"/>
+    </row>
+    <row r="110" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="F110" s="22"/>
+    </row>
+    <row r="111" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="F111" s="22"/>
+    </row>
+    <row r="112" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="F112" s="22"/>
+    </row>
+    <row r="113" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="F114" s="22"/>
+    </row>
+    <row r="115" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="F116" s="22"/>
+    </row>
+    <row r="117" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="F117" s="22"/>
+    </row>
+    <row r="118" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="F118" s="22"/>
+    </row>
+    <row r="119" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="F120" s="22"/>
+    </row>
+    <row r="121" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="F121" s="22"/>
+    </row>
+    <row r="122" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="F122" s="22"/>
+    </row>
+    <row r="123" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
+      <c r="F123" s="22"/>
+    </row>
+    <row r="124" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="F124" s="22"/>
+    </row>
+    <row r="125" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="F125" s="22"/>
+    </row>
+    <row r="126" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="F126" s="22"/>
+    </row>
+    <row r="127" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
+      <c r="F127" s="22"/>
+    </row>
+    <row r="128" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="F128" s="22"/>
+    </row>
+    <row r="129" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="F129" s="22"/>
+    </row>
+    <row r="130" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="F130" s="22"/>
+    </row>
+    <row r="131" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="F131" s="22"/>
+    </row>
+    <row r="132" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="F133" s="22"/>
+    </row>
+    <row r="134" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="F134" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>modules!$D$3:$D$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F54</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="95.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="22">
+        <f>IF(ISBLANK(D3),"",ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="22">
+        <v>9</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="22">
+        <f t="shared" ref="C4:C38" si="0">IF(ISBLANK(D4),"",ROW()-2)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="22">
+        <v>7</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="C9" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="24">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="C11" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="C13" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="C14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="C16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="C17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="C18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="C19" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="C20" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="C21" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="C22" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="C23" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="C24" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="C25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="C26" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="C27" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="C28" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="C29" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="C30" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="C31" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="C32" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="C33" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="C34" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="C35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="C36" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="C37" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="C38" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22"/>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="F88" s="22"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="F89" s="22"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="F90" s="22"/>
+    </row>
+    <row r="91" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="F93" s="22"/>
+    </row>
+    <row r="94" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="F94" s="22"/>
+    </row>
+    <row r="95" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="F95" s="22"/>
+    </row>
+    <row r="96" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="F96" s="22"/>
+    </row>
+    <row r="97" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="F99" s="22"/>
+    </row>
+    <row r="100" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="F101" s="22"/>
+    </row>
+    <row r="102" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="F103" s="22"/>
+    </row>
+    <row r="104" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="F104" s="22"/>
+    </row>
+    <row r="105" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="F106" s="22"/>
+    </row>
+    <row r="107" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="F108" s="22"/>
+    </row>
+    <row r="109" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="F109" s="22"/>
+    </row>
+    <row r="110" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="F110" s="22"/>
+    </row>
+    <row r="111" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="F111" s="22"/>
+    </row>
+    <row r="112" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="F112" s="22"/>
+    </row>
+    <row r="113" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="F114" s="22"/>
+    </row>
+    <row r="115" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="F116" s="22"/>
+    </row>
+    <row r="117" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="F117" s="22"/>
+    </row>
+    <row r="118" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="F118" s="22"/>
+    </row>
+    <row r="119" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="F120" s="22"/>
+    </row>
+    <row r="121" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="F121" s="22"/>
+    </row>
+    <row r="122" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="F122" s="22"/>
+    </row>
+    <row r="123" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
+      <c r="F123" s="22"/>
+    </row>
+    <row r="124" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="F124" s="22"/>
+    </row>
+    <row r="125" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="F125" s="22"/>
+    </row>
+    <row r="126" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="F126" s="22"/>
+    </row>
+    <row r="127" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
+      <c r="F127" s="22"/>
+    </row>
+    <row r="128" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="F128" s="22"/>
+    </row>
+    <row r="129" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="F129" s="22"/>
+    </row>
+    <row r="130" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="F130" s="22"/>
+    </row>
+    <row r="131" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="F131" s="22"/>
+    </row>
+    <row r="132" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="F133" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>modules!$D$3:$D$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F42</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="95.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="22" t="str">
+        <f>IF(ISBLANK(D3),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="22">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="22" t="str">
+        <f t="shared" ref="C4:C38" si="0">IF(ISBLANK(D4),"",ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="22">
+        <v>7</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="C8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="C9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="C10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="C11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="C12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="C13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="C14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="C16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="C17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="C18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="C19" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="C20" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="C21" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="C22" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="C23" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="C24" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="C25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="C26" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="C27" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="C28" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="C29" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="C30" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="C31" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="C32" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="C33" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="C34" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="C35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="C36" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="C37" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="C38" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22"/>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="F88" s="22"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="F89" s="22"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="F90" s="22"/>
+    </row>
+    <row r="91" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="F93" s="22"/>
+    </row>
+    <row r="94" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="F94" s="22"/>
+    </row>
+    <row r="95" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="F95" s="22"/>
+    </row>
+    <row r="96" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="F96" s="22"/>
+    </row>
+    <row r="97" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="F99" s="22"/>
+    </row>
+    <row r="100" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="F101" s="22"/>
+    </row>
+    <row r="102" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="F103" s="22"/>
+    </row>
+    <row r="104" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="F104" s="22"/>
+    </row>
+    <row r="105" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="F106" s="22"/>
+    </row>
+    <row r="107" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="F108" s="22"/>
+    </row>
+    <row r="109" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="F109" s="22"/>
+    </row>
+    <row r="110" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="F110" s="22"/>
+    </row>
+    <row r="111" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="F111" s="22"/>
+    </row>
+    <row r="112" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="F112" s="22"/>
+    </row>
+    <row r="113" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="F114" s="22"/>
+    </row>
+    <row r="115" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="F116" s="22"/>
+    </row>
+    <row r="117" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="F117" s="22"/>
+    </row>
+    <row r="118" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="F118" s="22"/>
+    </row>
+    <row r="119" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="F120" s="22"/>
+    </row>
+    <row r="121" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="F121" s="22"/>
+    </row>
+    <row r="122" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="F122" s="22"/>
+    </row>
+    <row r="123" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
+      <c r="F123" s="22"/>
+    </row>
+    <row r="124" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="F124" s="22"/>
+    </row>
+    <row r="125" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="F125" s="22"/>
+    </row>
+    <row r="126" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="F126" s="22"/>
+    </row>
+    <row r="127" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
+      <c r="F127" s="22"/>
+    </row>
+    <row r="128" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="F128" s="22"/>
+    </row>
+    <row r="129" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="F129" s="22"/>
+    </row>
+    <row r="130" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="F130" s="22"/>
+    </row>
+    <row r="131" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="F131" s="22"/>
+    </row>
+    <row r="132" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="F133" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>modules!$D$3:$D$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="11.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="19" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="36" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="36" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="36" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="36" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="36" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="M2" s="35" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="36" t="s">
+      <c r="N2" s="35" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>245</v>
-      </c>
+      <c r="O2" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42">
+        <f>SUM(C3:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="42">
+        <f t="shared" ref="D11:Q11" si="0">SUM(D3:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="4" width="20.42578125" style="27"/>
+    <col min="5" max="5" width="31.85546875" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="20.42578125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
